--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H2">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>5.774009165991111</v>
+        <v>2.588750704186889</v>
       </c>
       <c r="R2">
-        <v>51.96608249392</v>
+        <v>23.298756337682</v>
       </c>
       <c r="S2">
-        <v>0.0009249951575120016</v>
+        <v>0.000415369741227523</v>
       </c>
       <c r="T2">
-        <v>0.0009249951575120015</v>
+        <v>0.0004153697412275229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H3">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>1.938082393955556</v>
+        <v>0.5681652634311112</v>
       </c>
       <c r="R3">
-        <v>17.4427415456</v>
+        <v>5.113487370880001</v>
       </c>
       <c r="S3">
-        <v>0.0003104804266379157</v>
+        <v>9.116314601640014E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003104804266379157</v>
+        <v>9.116314601640014E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H4">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>162.0781641444156</v>
+        <v>47.51458612633911</v>
       </c>
       <c r="R4">
-        <v>1458.70347729974</v>
+        <v>427.6312751370521</v>
       </c>
       <c r="S4">
-        <v>0.02596489071320787</v>
+        <v>0.007623801439014703</v>
       </c>
       <c r="T4">
-        <v>0.02596489071320787</v>
+        <v>0.007623801439014703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J5">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N5">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P5">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q5">
-        <v>166.8274470606187</v>
+        <v>255.1395722298207</v>
       </c>
       <c r="R5">
-        <v>1501.447023545568</v>
+        <v>2296.256150068386</v>
       </c>
       <c r="S5">
-        <v>0.02672572492265414</v>
+        <v>0.04093760666973468</v>
       </c>
       <c r="T5">
-        <v>0.02672572492265414</v>
+        <v>0.04093760666973467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J6">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P6">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q6">
         <v>55.99667902869335</v>
@@ -818,10 +818,10 @@
         <v>503.9701112582401</v>
       </c>
       <c r="S6">
-        <v>0.008970657207019565</v>
+        <v>0.008984768614502273</v>
       </c>
       <c r="T6">
-        <v>0.008970657207019565</v>
+        <v>0.008984768614502271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J7">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P7">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q7">
         <v>4682.896332715378</v>
@@ -880,10 +880,10 @@
         <v>42146.0669944384</v>
       </c>
       <c r="S7">
-        <v>0.750199091543857</v>
+        <v>0.7513792018556911</v>
       </c>
       <c r="T7">
-        <v>0.7501990915438569</v>
+        <v>0.751379201855691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N8">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P8">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q8">
-        <v>39.675433829536</v>
+        <v>60.67810419482201</v>
       </c>
       <c r="R8">
-        <v>357.078904465824</v>
+        <v>546.102937753398</v>
       </c>
       <c r="S8">
-        <v>0.00635599686621023</v>
+        <v>0.009735911765013414</v>
       </c>
       <c r="T8">
-        <v>0.006355996866210229</v>
+        <v>0.009735911765013412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P9">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q9">
         <v>13.31730822848</v>
@@ -1004,10 +1004,10 @@
         <v>119.85577405632</v>
       </c>
       <c r="S9">
-        <v>0.002133430216043702</v>
+        <v>0.002136786235833529</v>
       </c>
       <c r="T9">
-        <v>0.002133430216043702</v>
+        <v>0.002136786235833529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P10">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q10">
         <v>1113.701293479092</v>
@@ -1066,10 +1066,10 @@
         <v>10023.31164131183</v>
       </c>
       <c r="S10">
-        <v>0.1784147329468577</v>
+        <v>0.1786953905329665</v>
       </c>
       <c r="T10">
-        <v>0.1784147329468577</v>
+        <v>0.1786953905329665</v>
       </c>
     </row>
   </sheetData>
